--- a/results/mp/deberta/corona/confidence/126/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -163,19 +163,19 @@
     <t>well</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>relief</t>
   </si>
   <si>
     <t>gt</t>
@@ -1812,25 +1812,25 @@
         <v>44</v>
       </c>
       <c r="K26">
-        <v>0.6812227074235808</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L26">
         <v>156</v>
       </c>
       <c r="M26">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1942,25 +1942,25 @@
         <v>49</v>
       </c>
       <c r="K31">
-        <v>0.6024464831804281</v>
+        <v>0.6</v>
       </c>
       <c r="L31">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>130</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1968,25 +1968,25 @@
         <v>50</v>
       </c>
       <c r="K32">
-        <v>0.6</v>
+        <v>0.5970149253731343</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1994,25 +1994,25 @@
         <v>51</v>
       </c>
       <c r="K33">
-        <v>0.5970149253731343</v>
+        <v>0.59375</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M33">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N33">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O33">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2020,25 +2020,25 @@
         <v>52</v>
       </c>
       <c r="K34">
-        <v>0.59375</v>
+        <v>0.58</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2046,13 +2046,13 @@
         <v>53</v>
       </c>
       <c r="K35">
-        <v>0.58</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L35">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="M35">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>21</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="10:17">
